--- a/data/trans_dic/P16-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3721552435967089</v>
+        <v>0.3722626532182768</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.484442242702275</v>
+        <v>0.4852203097331741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4647178663077191</v>
+        <v>0.4631654579624281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5099104038612053</v>
+        <v>0.507981237588859</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5320972880713626</v>
+        <v>0.5302710538037326</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6483699719521951</v>
+        <v>0.6467353907086222</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6395025366494963</v>
+        <v>0.6428739239771495</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6059057330669632</v>
+        <v>0.6047592778629836</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4633318121784256</v>
+        <v>0.4627930598249399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.57693961988316</v>
+        <v>0.5782761482164684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5592091129479206</v>
+        <v>0.5628257673758152</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5684131111782883</v>
+        <v>0.5682883117956272</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4440856652145103</v>
+        <v>0.4474999770449946</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5614222187328084</v>
+        <v>0.560891981994272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5429429277071144</v>
+        <v>0.5382265701607475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5926452317527473</v>
+        <v>0.5912499249526013</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6073624780716618</v>
+        <v>0.6086011006041798</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7213094168537674</v>
+        <v>0.7200679421516012</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7110018850033133</v>
+        <v>0.7129974788338892</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6666273206115751</v>
+        <v>0.6664937282956689</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5169428229406534</v>
+        <v>0.5176841164636951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6293690503191979</v>
+        <v>0.6314731910399944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6142476104688924</v>
+        <v>0.6165903260837112</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6210002962148112</v>
+        <v>0.6227908212891328</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6533087448335886</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6309325693667739</v>
+        <v>0.630932569366774</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5030530133408002</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3808303921488223</v>
+        <v>0.3809866192737625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4683132570002698</v>
+        <v>0.4671990381485006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4574144343731007</v>
+        <v>0.4588330781383947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4313598596714937</v>
+        <v>0.4311560257415908</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5591383016162227</v>
+        <v>0.5614647954961687</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6795966317935032</v>
+        <v>0.6800250833453956</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6207384254936357</v>
+        <v>0.6200818901238362</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6029029007299299</v>
+        <v>0.6029538225491502</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4800959913029541</v>
+        <v>0.4788331816136217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.582531499193169</v>
+        <v>0.5838400010211622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5499756909014288</v>
+        <v>0.5491809096545613</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5282077806374411</v>
+        <v>0.527392315456608</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4470831856743364</v>
+        <v>0.4467442316918558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5323347652076776</v>
+        <v>0.5352756646962943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5217229663837616</v>
+        <v>0.5234275857916153</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4983722131763109</v>
+        <v>0.5014056101666273</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.624403969631855</v>
+        <v>0.624560005753346</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7374027882653604</v>
+        <v>0.7379664277998346</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6806902493174082</v>
+        <v>0.6801941131251649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6570994164969205</v>
+        <v>0.6572692774626894</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5271790395652</v>
+        <v>0.5265165437497787</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6285673766152556</v>
+        <v>0.6284460901283289</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.594550702929346</v>
+        <v>0.5946606128880026</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.572712952658655</v>
+        <v>0.5714740677824309</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4641897207603485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5316150489475315</v>
+        <v>0.5316150489475314</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5787680664167471</v>
@@ -957,7 +957,7 @@
         <v>0.6127487492132917</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6038272099359071</v>
+        <v>0.603827209935907</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4844645468555441</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3527713587836677</v>
+        <v>0.3532176595205554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4397285372966864</v>
+        <v>0.4392224595525372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4276599164136288</v>
+        <v>0.4269752890616257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4898254084120428</v>
+        <v>0.4877756836538539</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5419751866256101</v>
+        <v>0.5418335814784561</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6422337636434363</v>
+        <v>0.6409726366682724</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5788686586588215</v>
+        <v>0.5765996665419387</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5708006866398355</v>
+        <v>0.5713514794511242</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4588630273887989</v>
+        <v>0.4556946068683767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5511741307590043</v>
+        <v>0.5528554876073886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5146533666967342</v>
+        <v>0.5139412248678662</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5418523331946659</v>
+        <v>0.5401819329193389</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4293228042894418</v>
+        <v>0.4278958075672011</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5118903249411675</v>
+        <v>0.5168183360201919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5044954992619362</v>
+        <v>0.5025778891543634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5757314109644712</v>
+        <v>0.5732971452767553</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6144342317970283</v>
+        <v>0.6151204281844864</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.709941014206751</v>
+        <v>0.7107920957448646</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6470129952829556</v>
+        <v>0.6466974814102959</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.635742499119424</v>
+        <v>0.6379274109043445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5120850527082408</v>
+        <v>0.5118782688375969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6039410426945047</v>
+        <v>0.6045780169184582</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5655664364874783</v>
+        <v>0.5650840519277787</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5941093260576177</v>
+        <v>0.5938377072487059</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5314752650455025</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5539528431801978</v>
+        <v>0.5539528431801979</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5931622748877532</v>
@@ -1105,7 +1105,7 @@
         <v>0.5952042671633717</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6075388317663416</v>
+        <v>0.6075388317663418</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3790305765269699</v>
+        <v>0.3748706295179599</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.481953483110621</v>
+        <v>0.4790406391816539</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4995595160326162</v>
+        <v>0.4974854482664139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5189602069836075</v>
+        <v>0.5169292832602612</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5628207797063881</v>
+        <v>0.5608169075959086</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6940256835432799</v>
+        <v>0.6927055442851381</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6221536520787391</v>
+        <v>0.6251958965497951</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6295185936292612</v>
+        <v>0.628494692541631</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4828840054440618</v>
+        <v>0.4820053804260673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6044332303988984</v>
+        <v>0.6053118798027559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5734546101368748</v>
+        <v>0.5736834927388773</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5869707347182614</v>
+        <v>0.5853290119846551</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4375861368240204</v>
+        <v>0.4381960868452951</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5481619320353667</v>
+        <v>0.5503490070101814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5613941409723278</v>
+        <v>0.5641839730485697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5893070839582328</v>
+        <v>0.5887235740845793</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.622979610372466</v>
+        <v>0.6219819113342069</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7513910428289833</v>
+        <v>0.7497507509419663</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6818740048601797</v>
+        <v>0.6846526331880983</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.679800684107032</v>
+        <v>0.6806110672068113</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5274303252602854</v>
+        <v>0.5268532199620491</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6472515579786348</v>
+        <v>0.6477367608570939</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6193154668225074</v>
+        <v>0.6175371650266577</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6274132966523747</v>
+        <v>0.6276580270494437</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>257901</v>
+        <v>257976</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>339875</v>
+        <v>340420</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>313592</v>
+        <v>312544</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>352200</v>
+        <v>350868</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>366270</v>
+        <v>365013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>451946</v>
+        <v>450807</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>430282</v>
+        <v>432551</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>444197</v>
+        <v>443357</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>640021</v>
+        <v>639277</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>806924</v>
+        <v>808794</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>753612</v>
+        <v>758486</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>809320</v>
+        <v>809142</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>307749</v>
+        <v>310115</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>393882</v>
+        <v>393510</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>366378</v>
+        <v>363195</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>409346</v>
+        <v>408382</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>418079</v>
+        <v>418931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>502789</v>
+        <v>501923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>478390</v>
+        <v>479733</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>488713</v>
+        <v>488615</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>714076</v>
+        <v>715100</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>880254</v>
+        <v>883197</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>827784</v>
+        <v>830941</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>884195</v>
+        <v>886744</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>366283</v>
+        <v>366433</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>476718</v>
+        <v>475584</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>467675</v>
+        <v>469125</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>452461</v>
+        <v>452247</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>541466</v>
+        <v>543719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>700766</v>
+        <v>701208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>647376</v>
+        <v>646691</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>645611</v>
+        <v>645666</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>926678</v>
+        <v>924240</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1193664</v>
+        <v>1196345</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1135889</v>
+        <v>1134247</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1119671</v>
+        <v>1117942</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>430005</v>
+        <v>429679</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>541889</v>
+        <v>544882</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>533426</v>
+        <v>535169</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>522751</v>
+        <v>525933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>604668</v>
+        <v>604820</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>760373</v>
+        <v>760954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>709901</v>
+        <v>709383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>703647</v>
+        <v>703829</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1017557</v>
+        <v>1016279</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1287996</v>
+        <v>1287747</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1227952</v>
+        <v>1228179</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1214011</v>
+        <v>1211385</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>239359</v>
+        <v>239661</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>332671</v>
+        <v>332288</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>324830</v>
+        <v>324310</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>393366</v>
+        <v>391719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>370625</v>
+        <v>370528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>498555</v>
+        <v>497576</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>454418</v>
+        <v>452637</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>463638</v>
+        <v>464085</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>625132</v>
+        <v>620816</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>844851</v>
+        <v>847429</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>794915</v>
+        <v>793815</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>875271</v>
+        <v>872573</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>291299</v>
+        <v>290331</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>387264</v>
+        <v>390993</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>383191</v>
+        <v>381734</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>462354</v>
+        <v>460399</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>420175</v>
+        <v>420645</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>551115</v>
+        <v>551776</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>507912</v>
+        <v>507665</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>516388</v>
+        <v>518162</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>697639</v>
+        <v>697357</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>925734</v>
+        <v>926710</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>873553</v>
+        <v>872808</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>959684</v>
+        <v>959245</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>357131</v>
+        <v>353211</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>455894</v>
+        <v>453139</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>468371</v>
+        <v>466426</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>513803</v>
+        <v>511792</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>584552</v>
+        <v>582471</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>729368</v>
+        <v>727981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>649391</v>
+        <v>652566</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>703192</v>
+        <v>702048</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>956513</v>
+        <v>954773</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1206966</v>
+        <v>1208720</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1136212</v>
+        <v>1136665</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1236802</v>
+        <v>1233343</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>412303</v>
+        <v>412878</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>518523</v>
+        <v>520592</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>526345</v>
+        <v>528960</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>583451</v>
+        <v>582873</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>647034</v>
+        <v>645998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>789655</v>
+        <v>787931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>711726</v>
+        <v>714626</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>759358</v>
+        <v>760264</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1044752</v>
+        <v>1043609</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1292468</v>
+        <v>1293436</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1227078</v>
+        <v>1223555</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1322018</v>
+        <v>1322534</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
     </row>
     <row r="24">
